--- a/Marketplace_Builder_Hackathon_2025/Day5_Testing_Report_Sample.xlsx
+++ b/Marketplace_Builder_Hackathon_2025/Day5_Testing_Report_Sample.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -59,45 +59,18 @@
     <t>TC001</t>
   </si>
   <si>
-    <t>Validate product listing page</t>
-  </si>
-  <si>
-    <t>Open product page &gt; Verify products</t>
-  </si>
-  <si>
-    <t>Products displayed correctly</t>
-  </si>
-  <si>
     <t>Passed</t>
   </si>
   <si>
     <t>Low</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>No issues found</t>
-  </si>
-  <si>
     <t>TC002</t>
   </si>
   <si>
     <t>Test API error handling</t>
   </si>
   <si>
-    <t>Disconnect API &gt; Refresh page</t>
-  </si>
-  <si>
-    <t>Show fallback UI with error message</t>
-  </si>
-  <si>
-    <t>Error message shown</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
     <t>Handled gracefully</t>
   </si>
   <si>
@@ -113,15 +86,9 @@
     <t>Cart updates with added product</t>
   </si>
   <si>
-    <t>Cart updates as expected</t>
-  </si>
-  <si>
     <t>High</t>
   </si>
   <si>
-    <t>Works as expected</t>
-  </si>
-  <si>
     <t>TC004</t>
   </si>
   <si>
@@ -134,17 +101,71 @@
     <t>Layout adjusts properly to screen size</t>
   </si>
   <si>
-    <t>Responsive layout working as intended</t>
-  </si>
-  <si>
     <t>Test successful</t>
+  </si>
+  <si>
+    <t>Validate Product Listing Page</t>
+  </si>
+  <si>
+    <t>Open Products Page &gt; Validate Products</t>
+  </si>
+  <si>
+    <t>Products Display Successfully</t>
+  </si>
+  <si>
+    <t>No problems detected</t>
+  </si>
+  <si>
+    <t>Zubair Ahmed</t>
+  </si>
+  <si>
+    <t>Remove Sanity Gorq Query &gt; Reload Page</t>
+  </si>
+  <si>
+    <t>Show Error Message - Failed to load products ×</t>
+  </si>
+  <si>
+    <t>Shown Error Message - Failed to load products ×</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>Cart did not updated</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Not Working</t>
+  </si>
+  <si>
+    <t>Fully Responsive layout working as intended</t>
+  </si>
+  <si>
+    <t>TC005</t>
+  </si>
+  <si>
+    <t>Cross Browsing</t>
+  </si>
+  <si>
+    <t>Open our website on different Browsers such as Yahoo</t>
+  </si>
+  <si>
+    <t>Waao! Amazing</t>
+  </si>
+  <si>
+    <t>Working Correctly on every browsers</t>
+  </si>
+  <si>
+    <t>Working Correctly on every Browsers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,8 +188,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,13 +205,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.499984740745262"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,24 +307,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -573,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.85546875" defaultRowHeight="71.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -590,7 +627,7 @@
     <col min="10" max="16384" width="20.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" ht="71.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="71.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -619,120 +656,149 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="H2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="C3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="5" t="s">
+    </row>
+    <row r="4" spans="1:9" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>16</v>
       </c>
+      <c r="C4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" s="4" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="6" t="s">
+    <row r="5" spans="1:9" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="B5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>23</v>
       </c>
+      <c r="E5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" s="4" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="6" t="s">
+    <row r="6" spans="1:9" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="4" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>36</v>
+      <c r="I6" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
